--- a/data/hotels_by_city/Houston/Houston_shard_311.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_311.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="692">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d6439277-Reviews-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Atascocita-Humble-Kingwood.h7825125.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531273737239&amp;cancellable=false&amp;regionId=178162&amp;vip=false&amp;c=f22c9f00-e4f0-46bc-8ac4-6f79543d4431&amp;mctc=9&amp;exp_dp=109&amp;exp_ts=1531273744479&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1958 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r598260078-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>6439277</t>
+  </si>
+  <si>
+    <t>598260078</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Warning about the Shuttle</t>
+  </si>
+  <si>
+    <t>It is easy to overlook the fine print about the shuttle.  Not only does it not operate before 09:00, it has to he booked 24 hours in advance.  This information can be found on their web site, but it is not immediately obvious that the shuttle service availability is different to what is expected when a web search for IAH Airport Hotels shows this hotel has a Shuttle Service.  My mistake in not checking everything in fine detail (who does ?) forced me to rent a car to get to the hotel (the hotel suggested I get a taxi or Uber).  The front desk staff made it very clear that “we are not an airport hotel, and we don’t have a shuttle driver available at short notice”.  Meanwhile, the Shuttle bus is parked in front of the hotel for all to see.  Otherwise, its a comfortable, clean hotel with the expected amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded today</t>
+  </si>
+  <si>
+    <t>Responded today</t>
+  </si>
+  <si>
+    <t>It is easy to overlook the fine print about the shuttle.  Not only does it not operate before 09:00, it has to he booked 24 hours in advance.  This information can be found on their web site, but it is not immediately obvious that the shuttle service availability is different to what is expected when a web search for IAH Airport Hotels shows this hotel has a Shuttle Service.  My mistake in not checking everything in fine detail (who does ?) forced me to rent a car to get to the hotel (the hotel suggested I get a taxi or Uber).  The front desk staff made it very clear that “we are not an airport hotel, and we don’t have a shuttle driver available at short notice”.  Meanwhile, the Shuttle bus is parked in front of the hotel for all to see.  Otherwise, its a comfortable, clean hotel with the expected amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r598050927-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>598050927</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Guess should be able to get what they need</t>
+  </si>
+  <si>
+    <t>Requested sheets and blankets was not accommodated because the person at the front desk didn’t have keys to get to that facility. Someone should have access to clean sheets and blankets at night. Also requested a wake up call I never received it.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Requested sheets and blankets was not accommodated because the person at the front desk didn’t have keys to get to that facility. Someone should have access to clean sheets and blankets at night. Also requested a wake up call I never received it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r571584764-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>571584764</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel - Friendly Staff</t>
+  </si>
+  <si>
+    <t>This is the second time I stayed at this hotel, and once again it was amazing. The staff is friendly, the rooms comfortable, and the breakfast bar delicious! While in the area I also enjoyed bbq at Tin Roof BBQ and had a relaxing in-room professional massage provided by Realm of Relaxation Massage Therapy (281-948-3166). I will frequent all of these againMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>216christina, Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>This is the second time I stayed at this hotel, and once again it was amazing. The staff is friendly, the rooms comfortable, and the breakfast bar delicious! While in the area I also enjoyed bbq at Tin Roof BBQ and had a relaxing in-room professional massage provided by Realm of Relaxation Massage Therapy (281-948-3166). I will frequent all of these againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r562030426-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>562030426</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Competent and friendly front desk</t>
+  </si>
+  <si>
+    <t>The facility was new and clean. It had one of the best workout rooms I have ever seen at a Holiday Inn. But the best part of our stay, by far, was all of the help that we received from Marisol at the front desk. She helped us rearrange our rooms and reservations multiple times. She was kind and understanding every time we had a change of plans and needed to make an adjustment to our reservations. She made our stay carefree and enjoyable. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>216christina, Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>The facility was new and clean. It had one of the best workout rooms I have ever seen at a Holiday Inn. But the best part of our stay, by far, was all of the help that we received from Marisol at the front desk. She helped us rearrange our rooms and reservations multiple times. She was kind and understanding every time we had a change of plans and needed to make an adjustment to our reservations. She made our stay carefree and enjoyable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r555261395-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>555261395</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We arrived here during the winter storm of January 2018.  Because or the storm, we asked for early check in and was graciously granted permission to check in prior to 12 noon.  The staff that checked us in helped find the lowest possible rate (lower than our reserved price).  The room was outstanding.  It was very clean and well maintained.  We were located on the floor we requested through the reservation process.  The entire staff in this hotel was very helpful and very friendly.  The desk clerk, Robert, went above and beyond our expectations to satisfy our requests.  We asked for and received late checkout.  Location is convenient and hotel is easy to find.  We will  definitely stay here on our next visit to Humble.  Can't say enough good things about the staff and the facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We arrived here during the winter storm of January 2018.  Because or the storm, we asked for early check in and was graciously granted permission to check in prior to 12 noon.  The staff that checked us in helped find the lowest possible rate (lower than our reserved price).  The room was outstanding.  It was very clean and well maintained.  We were located on the floor we requested through the reservation process.  The entire staff in this hotel was very helpful and very friendly.  The desk clerk, Robert, went above and beyond our expectations to satisfy our requests.  We asked for and received late checkout.  Location is convenient and hotel is easy to find.  We will  definitely stay here on our next visit to Humble.  Can't say enough good things about the staff and the facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r554782090-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>554782090</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Great property, fantastic employees!</t>
+  </si>
+  <si>
+    <t>This hotel and its employees made two frustrating days of airport travel delays so much easier! My flights were cancelled due to weather and I was able to book a room here at the last minute. The manager, Emil, drove his own car through an ice storm to pick me up at the airport. The front desk staff directed me to the hot cocoa and made me feel right at home. My room was very clean and felt brand new, and I got a great night's sleep before catching the shuttle back to the airport the next morning. This is a great place to stay with employees who clearly care about their guests. I highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel and its employees made two frustrating days of airport travel delays so much easier! My flights were cancelled due to weather and I was able to book a room here at the last minute. The manager, Emil, drove his own car through an ice storm to pick me up at the airport. The front desk staff directed me to the hot cocoa and made me feel right at home. My room was very clean and felt brand new, and I got a great night's sleep before catching the shuttle back to the airport the next morning. This is a great place to stay with employees who clearly care about their guests. I highly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r532847500-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>532847500</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Wedding Guests</t>
+  </si>
+  <si>
+    <t>This hotel was clean, comfortable, and convenient to the airport and the wedding that we flew in for. The delicious breakfast was definitely needed for this pregnant lady! The bed was so cozy and I finally felt rested after a long day of travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>eraschle, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was clean, comfortable, and convenient to the airport and the wedding that we flew in for. The delicious breakfast was definitely needed for this pregnant lady! The bed was so cozy and I finally felt rested after a long day of travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r522204457-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>522204457</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Relief Saver</t>
+  </si>
+  <si>
+    <t>Great staff, very personable &amp; compassionate about the customers they serve.  All of the staff were wonderful but the 3 that really made my 4 day stay special were Linda, Leslie, and Roamne.  Those 3 went above &amp; beyond excellent customer service skills.  Despite the fact that the hurricane dismantled many people's life, the facility was lacking staff, and some customers took their frustration out on the Holiday Inn staff...,  those three continued to maintain compassionate &amp; professional service with a smile.  This location is  convenient to the Freeway, shopping areas, diners &amp; much more.  It"s a clean facility &amp; worth the price.   Great job Holiday Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Great staff, very personable &amp; compassionate about the customers they serve.  All of the staff were wonderful but the 3 that really made my 4 day stay special were Linda, Leslie, and Roamne.  Those 3 went above &amp; beyond excellent customer service skills.  Despite the fact that the hurricane dismantled many people's life, the facility was lacking staff, and some customers took their frustration out on the Holiday Inn staff...,  those three continued to maintain compassionate &amp; professional service with a smile.  This location is  convenient to the Freeway, shopping areas, diners &amp; much more.  It"s a clean facility &amp; worth the price.   Great job Holiday Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r514053079-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>514053079</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Very friendly and courteous front desk. Made you feel welcome after long drive! Rooms are clean and beautiful.  Will stay here again!  Even a coutesy breakfast!  In fact in 18 days after our trip to Europe!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Very friendly and courteous front desk. Made you feel welcome after long drive! Rooms are clean and beautiful.  Will stay here again!  Even a coutesy breakfast!  In fact in 18 days after our trip to Europe!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r504803302-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>504803302</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>This is an absolute wonderful hotel. The room was amazing and everything is so clean. Melanie the night manager is awesome and made our stay perfect! I highly recommend this hotel, we will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded August 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2017</t>
+  </si>
+  <si>
+    <t>This is an absolute wonderful hotel. The room was amazing and everything is so clean. Melanie the night manager is awesome and made our stay perfect! I highly recommend this hotel, we will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r503673382-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>503673382</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Very Accessible HI Express</t>
+  </si>
+  <si>
+    <t>There was a screw up on the room at first, but Melanie, Katy, and Shannon at the front desk are great folks and they fixed it. The wheelchair accessible room is among the best that I have found.  Bathroom was completely accessible and the shower floor slopped to the drain so water didn't spread out all over the floor like most.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>There was a screw up on the room at first, but Melanie, Katy, and Shannon at the front desk are great folks and they fixed it. The wheelchair accessible room is among the best that I have found.  Bathroom was completely accessible and the shower floor slopped to the drain so water didn't spread out all over the floor like most.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r501289511-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>501289511</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Outstanding Service and Large rooms</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel because it is offered through Park Sleep Fly, but you won't know if you call the front desk.  I booked through the ParkSleepFly website, but had put a different date by mistake, so when I called the hotel to change it, the front desk lady could not verify it.  She didn't even know that the hotel had that amenity.  We did go around for a bit until she forwarded the call to reservations and the person there was able to change it.  It was a small glitch in the communication, but overall this hotel is very good.  The rooms are large, clean and they serve breakfast every morning.  The staff was very, very friendly and went out of their way to help us.  We actually met their sales manager who drove us to the airport for our trip because their van personnel was unavailable that day.  She turned out to be very friendly, capable and helpful.  She left a lasting impression on us and upon our return gave us a great greeting.  I would truly recommend this hotel to anyone needing a hotel near the airport, or just wanting to stay in Houston.  The prices are very reasonable and you get a lot of bang for your money.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel because it is offered through Park Sleep Fly, but you won't know if you call the front desk.  I booked through the ParkSleepFly website, but had put a different date by mistake, so when I called the hotel to change it, the front desk lady could not verify it.  She didn't even know that the hotel had that amenity.  We did go around for a bit until she forwarded the call to reservations and the person there was able to change it.  It was a small glitch in the communication, but overall this hotel is very good.  The rooms are large, clean and they serve breakfast every morning.  The staff was very, very friendly and went out of their way to help us.  We actually met their sales manager who drove us to the airport for our trip because their van personnel was unavailable that day.  She turned out to be very friendly, capable and helpful.  She left a lasting impression on us and upon our return gave us a great greeting.  I would truly recommend this hotel to anyone needing a hotel near the airport, or just wanting to stay in Houston.  The prices are very reasonable and you get a lot of bang for your money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r497434404-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>497434404</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Best I have stayed in a while, friendly staff. They work well together  making it feel like home away from home. HIGHLY RECOMMEND YOUR STAY HERE.  Clean  rooms, pool area keep up,  landscaping nice. Breakfast was great both days, it was not just donuts and coffee. MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Best I have stayed in a while, friendly staff. They work well together  making it feel like home away from home. HIGHLY RECOMMEND YOUR STAY HERE.  Clean  rooms, pool area keep up,  landscaping nice. Breakfast was great both days, it was not just donuts and coffee. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r495713776-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>495713776</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Hotel and Management</t>
+  </si>
+  <si>
+    <t>This is a great hotel. VERY CLEAN.  I would recommend this hotel to anyone. Ms. Lena the Hotel Manager is awesome. She is working with us for a group stay next year. She has blocked off the rooms that we will need for our family reunion. She is EXTREMELY ACCOMODATING. Carrie RodriguezMoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great hotel. VERY CLEAN.  I would recommend this hotel to anyone. Ms. Lena the Hotel Manager is awesome. She is working with us for a group stay next year. She has blocked off the rooms that we will need for our family reunion. She is EXTREMELY ACCOMODATING. Carrie RodriguezMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r494875246-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>494875246</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel and Great People</t>
+  </si>
+  <si>
+    <t>Came to the Holiday Inn Express for a few days for business meetings. Everyone here was extremely courteous and willing to help and accommodate us in any way! The rooms are always nice, the food is good, and the facilities are always clean and in good condition. I would definitely recommend this hotel for pleasure and/or business traveling. Edilena made sure we had lunch, conference room, etc. everything we needed was taken care of!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Came to the Holiday Inn Express for a few days for business meetings. Everyone here was extremely courteous and willing to help and accommodate us in any way! The rooms are always nice, the food is good, and the facilities are always clean and in good condition. I would definitely recommend this hotel for pleasure and/or business traveling. Edilena made sure we had lunch, conference room, etc. everything we needed was taken care of!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r491525540-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491525540</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Park and Fly</t>
+  </si>
+  <si>
+    <t>As one of a group of 4, I stayed for one night in the hotel and was shuttled to Houston Intercontinental Airport.  The staff was very accommodating. The hotel is very nice, clean and comfortable.  The pool and hot tub allowed us to unwind and prepare for our vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>As one of a group of 4, I stayed for one night in the hotel and was shuttled to Houston Intercontinental Airport.  The staff was very accommodating. The hotel is very nice, clean and comfortable.  The pool and hot tub allowed us to unwind and prepare for our vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r490135325-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>490135325</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>This week had the pleasure of staying that this great hotel again!!!  I am moved as I walk in the door as I am always welcomed by the staff.  From the manager down, everyone greets you and helps you get checked in and make sure everything is correct.  Every Wednesday, they have food available and this week it was Red Ring BBQ.  Being from Texas, BBQ is important and this was some of the best that I have ever had!!!  Can't wait to have it again sometime in the near future.  When booking your room, Melanie is amazing and tries to find the best room possible and can make changes very quickly.  The rooms are always perfect and clean as can be.  I will always stay at this hotel anytime I come to Houston even if I have to drive more than an hour to where I am going there for.  Exceptional hotel and staff.  Second to NONE!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>This week had the pleasure of staying that this great hotel again!!!  I am moved as I walk in the door as I am always welcomed by the staff.  From the manager down, everyone greets you and helps you get checked in and make sure everything is correct.  Every Wednesday, they have food available and this week it was Red Ring BBQ.  Being from Texas, BBQ is important and this was some of the best that I have ever had!!!  Can't wait to have it again sometime in the near future.  When booking your room, Melanie is amazing and tries to find the best room possible and can make changes very quickly.  The rooms are always perfect and clean as can be.  I will always stay at this hotel anytime I come to Houston even if I have to drive more than an hour to where I am going there for.  Exceptional hotel and staff.  Second to NONE!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r489655085-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>489655085</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the Hotel last night. To my surprise the hotel had a happy hour.  The Happy Hour food  was sponsored by Red Ring BBQ.... The food was amazing!The best brisket and beans I've had in Houston &amp; Humble areas.Keep up the great work Lina and staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the Hotel last night. To my surprise the hotel had a happy hour.  The Happy Hour food  was sponsored by Red Ring BBQ.... The food was amazing!The best brisket and beans I've had in Houston &amp; Humble areas.Keep up the great work Lina and staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r488822332-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>488822332</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>great hotel</t>
+  </si>
+  <si>
+    <t>our group had a great stay, 30 of us, hotel is new and clean, complimentary breakfast was better than most, nice pool area,  Edelina the sales mgr was great, a pleasure to work with, all of our requests, were handled perfectly, Cedric and the girls at the front desk were quite helpful, our cleaning lady  Maria T  was great our room was always spotless, new hotel great staff,  we will be back   Hopkins golf groupMoreShow less</t>
+  </si>
+  <si>
+    <t>our group had a great stay, 30 of us, hotel is new and clean, complimentary breakfast was better than most, nice pool area,  Edelina the sales mgr was great, a pleasure to work with, all of our requests, were handled perfectly, Cedric and the girls at the front desk were quite helpful, our cleaning lady  Maria T  was great our room was always spotless, new hotel great staff,  we will be back   Hopkins golf groupMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r488577491-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>488577491</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Good choice for a few days!</t>
+  </si>
+  <si>
+    <t>Stayed here for an event. The rooms are clean and look close to new. The staff are accommodating. Breakfast is good pancake maker, every day there was a veggie egg omlet. Like some have mentioned the walls are paper thin. I listened to our neighbor snore all night. There are lots of food options around, the area is safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for an event. The rooms are clean and look close to new. The staff are accommodating. Breakfast is good pancake maker, every day there was a veggie egg omlet. Like some have mentioned the walls are paper thin. I listened to our neighbor snore all night. There are lots of food options around, the area is safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r485794943-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>485794943</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to conduct a business seminar </t>
+  </si>
+  <si>
+    <t>This hotel proved to be an excellent choice for conducting a business seminar.  The meeting room was large and professional, with AV capabilities. The facility looked new and clean, and the management and staff were very accommodating to make sure my seminar event went well for all concerned.  I also spent the night at the hotel. The room was large, clean, quiet, and comfortable.  The breakfast was well stocked and appreciated.   I would certainly recommend this hotel for business and personal stays.  The price is also very competitive for the amenities offered. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded May 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2017</t>
+  </si>
+  <si>
+    <t>This hotel proved to be an excellent choice for conducting a business seminar.  The meeting room was large and professional, with AV capabilities. The facility looked new and clean, and the management and staff were very accommodating to make sure my seminar event went well for all concerned.  I also spent the night at the hotel. The room was large, clean, quiet, and comfortable.  The breakfast was well stocked and appreciated.   I would certainly recommend this hotel for business and personal stays.  The price is also very competitive for the amenities offered. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r484749135-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>484749135</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Clean room, friendly and helpful staff. Wonderful full American breakfast!</t>
+  </si>
+  <si>
+    <t>Lovely room, clean, large and comfortable. Location very accesible to restaurants, stores and everything one would need. Service great! price reasonable for the area. Terrific breakfast with a wide variety of selections included in the price of the room. Enjoyed stay and would stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Lovely room, clean, large and comfortable. Location very accesible to restaurants, stores and everything one would need. Service great! price reasonable for the area. Terrific breakfast with a wide variety of selections included in the price of the room. Enjoyed stay and would stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r482141975-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>482141975</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Rude front desk</t>
+  </si>
+  <si>
+    <t>Rudest ever lady on Saturday 4.22.17. Asked for early check in and was asked to call back. Called back and was told we couldnt get early check in because we used hotels.com. if we would have booked directly through the hotel we could have checked in early. Arrived at hotel and the place was dark smelled bad and asked about renting a room. The rude lady said 175. I said 175 what. She then said i know you are the one wanting early check in and you wont get it. She was loud confrontational. I couldnt get a word in with her. So i asked to speak to the manager and was told she was the only one there. Went next door to hampton inn and got a room right away. Beware of this rude weekend front desk agent, and hotel with no manager on duty!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Rudest ever lady on Saturday 4.22.17. Asked for early check in and was asked to call back. Called back and was told we couldnt get early check in because we used hotels.com. if we would have booked directly through the hotel we could have checked in early. Arrived at hotel and the place was dark smelled bad and asked about renting a room. The rude lady said 175. I said 175 what. She then said i know you are the one wanting early check in and you wont get it. She was loud confrontational. I couldnt get a word in with her. So i asked to speak to the manager and was told she was the only one there. Went next door to hampton inn and got a room right away. Beware of this rude weekend front desk agent, and hotel with no manager on duty!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r481661884-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>481661884</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Great service and Staff</t>
+  </si>
+  <si>
+    <t>Stayed here Feb 2017 for Superbowl weekend. everyone in my party(8) raved about the great time we had and the professional staff. they also introduced everyone to the IHG membership and walked us through the registration process. Not only was the stay  Excellent but the follow up from James Breazeale was so informative and he will address any concern you have no matter where you stay in the IHG network. I will be back here in July with family and friends. 5 StarMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here Feb 2017 for Superbowl weekend. everyone in my party(8) raved about the great time we had and the professional staff. they also introduced everyone to the IHG membership and walked us through the registration process. Not only was the stay  Excellent but the follow up from James Breazeale was so informative and he will address any concern you have no matter where you stay in the IHG network. I will be back here in July with family and friends. 5 StarMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r473948342-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>473948342</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>If it's a great place your looking for</t>
+  </si>
+  <si>
+    <t>We had talked to the staff about our needs and they did EVERYTHING to make our dreams come true. When we needed early check in they made it come true. When we needed a late check out they made it happen.I must say that Ms. Edilena Machado was AMAZING!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had talked to the staff about our needs and they did EVERYTHING to make our dreams come true. When we needed early check in they made it come true. When we needed a late check out they made it happen.I must say that Ms. Edilena Machado was AMAZING!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r467292637-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>467292637</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Great stay! We'll be back</t>
+  </si>
+  <si>
+    <t>My wife and I spent two nights here last week while visiting relatives in the area. We arrived shortly after 1pm, and were checked in with no fuss. The room was spotless, as was the rest of the property. The staff was friendly and attentive. Breakfast was very good, with plenty of variety.I was pleased with Holiday Inn, once again, to find a television with excellent reception and a guide that worked,I was also grateful for a wonderful shower with lots of hot water in a very strong stream... something that should be expected in today's hotels, but still sadly lacking in many of them.Overall, it was a painless, easy and comfortable stay. Excellent job!MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded March 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I spent two nights here last week while visiting relatives in the area. We arrived shortly after 1pm, and were checked in with no fuss. The room was spotless, as was the rest of the property. The staff was friendly and attentive. Breakfast was very good, with plenty of variety.I was pleased with Holiday Inn, once again, to find a television with excellent reception and a guide that worked,I was also grateful for a wonderful shower with lots of hot water in a very strong stream... something that should be expected in today's hotels, but still sadly lacking in many of them.Overall, it was a painless, easy and comfortable stay. Excellent job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r467030453-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>467030453</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>My stay at the hotel was awesome! When I checked in it was late and Jaz was so nice and friendly! My room was clean as well as the hotel! They serve a hot continental breakfast and one of the hotel staff was there to make sure they didn't run out of food. The entire staff was very friendly. Every time in Humble, I plan to stay here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>My stay at the hotel was awesome! When I checked in it was late and Jaz was so nice and friendly! My room was clean as well as the hotel! They serve a hot continental breakfast and one of the hotel staff was there to make sure they didn't run out of food. The entire staff was very friendly. Every time in Humble, I plan to stay here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r458477752-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>458477752</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>The Best Stay of my life</t>
+  </si>
+  <si>
+    <t>I was in town for the super bowl came into the holiday Inn express located on 5619 Fm 1960 Rd E, Humble, Tx. Instantly met with Irene upon arrival she had me check in and enrolled into the holiday rewards program in less than 8 minutes. Staff members Rosie, Paula and James G (maintenance) were phenomenal. The complimentary breakfast was amazing and the service was impeccable. I would recommend this hotel and staff to anyone that plans to visit the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded February 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2017</t>
+  </si>
+  <si>
+    <t>I was in town for the super bowl came into the holiday Inn express located on 5619 Fm 1960 Rd E, Humble, Tx. Instantly met with Irene upon arrival she had me check in and enrolled into the holiday rewards program in less than 8 minutes. Staff members Rosie, Paula and James G (maintenance) were phenomenal. The complimentary breakfast was amazing and the service was impeccable. I would recommend this hotel and staff to anyone that plans to visit the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r453695258-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>453695258</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Spot on</t>
+  </si>
+  <si>
+    <t>Absolutely perfect. Great staff, impeccably clean, good breakfast. Great value for the price. In a great location to boot! Would stay here again without hesitation. They offer free access to a local fitness facility when pool area is closed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Absolutely perfect. Great staff, impeccably clean, good breakfast. Great value for the price. In a great location to boot! Would stay here again without hesitation. They offer free access to a local fitness facility when pool area is closed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r453234138-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>453234138</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Excellent service from the first day, friendliness, cleanliness, service, hospitality, comfort, everything was excellent thank you very much.Una atención excelente desde el primer día, amabilidad, limpieza, servicio, hospitalidad, confort, todo estuvo excelente muchas gracias.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent service from the first day, friendliness, cleanliness, service, hospitality, comfort, everything was excellent thank you very much.Una atención excelente desde el primer día, amabilidad, limpieza, servicio, hospitalidad, confort, todo estuvo excelente muchas gracias.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r449284898-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>449284898</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!!</t>
+  </si>
+  <si>
+    <t>This was our second time staying here and it was awesome. Check in and out was super easy. All staff was friendly and helpful. The clerk at the front desk was awesome! She called the room after we settled in to make sure everything was in working order. We stay here anytime we're in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our second time staying here and it was awesome. Check in and out was super easy. All staff was friendly and helpful. The clerk at the front desk was awesome! She called the room after we settled in to make sure everything was in working order. We stay here anytime we're in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r449050327-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>449050327</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Conference room accomodation.</t>
+  </si>
+  <si>
+    <t>Overall experience of my family and friends who all used the conference room for a Christmas Eve event was a feeling of being home away from home. All the staff were very accomodating and respectful especially  the director of sales Edilena Machado. She was very helpful and very friendly. All my expectations for a marvelous stay at the hotel were all met and I will surely recommend it to all my friends as it was recommended to me by my sister.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Overall experience of my family and friends who all used the conference room for a Christmas Eve event was a feeling of being home away from home. All the staff were very accomodating and respectful especially  the director of sales Edilena Machado. She was very helpful and very friendly. All my expectations for a marvelous stay at the hotel were all met and I will surely recommend it to all my friends as it was recommended to me by my sister.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r445699456-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>445699456</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Front desk and sales lady</t>
+  </si>
+  <si>
+    <t>I would like to say that Melanie Johnson is very helpful, polite and professional.  Great customer service.  I would also like to say that the sales lady for your hotel is very nice and does a great job on the food for the hotel on Wednesdays.  always has a nice setup and does a great job.. Sales lady is very accomodating and very helpful.  they always do a great job of taking care you and is very good to my family that is staying at your hotel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I would like to say that Melanie Johnson is very helpful, polite and professional.  Great customer service.  I would also like to say that the sales lady for your hotel is very nice and does a great job on the food for the hotel on Wednesdays.  always has a nice setup and does a great job.. Sales lady is very accomodating and very helpful.  they always do a great job of taking care you and is very good to my family that is staying at your hotel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r444308918-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>444308918</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Hotel is fairly new. Excellent service. The free breakfast was good quality and variety. The staff was very friendly and accommodating to our requests. The room was very clean clean &amp; spacious with modern decor. The bed was firm and very comfortable. Loved the bathroom had plenty of counter space. The small fridge, microwave, and coffee maker where a plus. The hotel also has a nice pool but we didn't have the opportunity use it. The next door BBQ restaurant is very good &amp; convenient. This hotel offers a free shuttle from &amp; to the airport but the hours are limited.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn Exp... A, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is fairly new. Excellent service. The free breakfast was good quality and variety. The staff was very friendly and accommodating to our requests. The room was very clean clean &amp; spacious with modern decor. The bed was firm and very comfortable. Loved the bathroom had plenty of counter space. The small fridge, microwave, and coffee maker where a plus. The hotel also has a nice pool but we didn't have the opportunity use it. The next door BBQ restaurant is very good &amp; convenient. This hotel offers a free shuttle from &amp; to the airport but the hours are limited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r441456790-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>441456790</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel! </t>
+  </si>
+  <si>
+    <t>This a great place to stay! I arrived around midnight and was warmly greeted by Jazz. She gave me a very nice room close to all the amenities and it was spotless! The morning breakfast had a wide variety and lots of hot coffee available in addition to the Keurig machine in my room. I had some personal business and airline boarding passes to print so the business center was perfect. There is a very nice mini store where you can purchase a variety of snacks and sundries. The parking lot was well lit.The mattress was super comfortable. I actually meant to see what brand it was! I highly recommend this hotel and will certainly stay there on my next trip! Great job Jazz! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>This a great place to stay! I arrived around midnight and was warmly greeted by Jazz. She gave me a very nice room close to all the amenities and it was spotless! The morning breakfast had a wide variety and lots of hot coffee available in addition to the Keurig machine in my room. I had some personal business and airline boarding passes to print so the business center was perfect. There is a very nice mini store where you can purchase a variety of snacks and sundries. The parking lot was well lit.The mattress was super comfortable. I actually meant to see what brand it was! I highly recommend this hotel and will certainly stay there on my next trip! Great job Jazz! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r440434699-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>440434699</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Pros &amp; Cons</t>
+  </si>
+  <si>
+    <t>Pros: very clean hotel; excellent customer service; good breakfast areaCons: bed was hard; walls are thin, so we could hear the baby crying down the hall; was placed in a room next to the highway, so you could hear the traffic all nightMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Pros: very clean hotel; excellent customer service; good breakfast areaCons: bed was hard; walls are thin, so we could hear the baby crying down the hall; was placed in a room next to the highway, so you could hear the traffic all nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r436009904-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>436009904</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Awesome experience! Staff is very helpful and the sales manager went above and beyond to help us out. Wednesday night dinner was very tasteful. Rooms are very comfortable &amp; location is great. Definitely will stay here again!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Awesome experience! Staff is very helpful and the sales manager went above and beyond to help us out. Wednesday night dinner was very tasteful. Rooms are very comfortable &amp; location is great. Definitely will stay here again!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r433977418-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>433977418</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Well kept rooms and great customer sercive. MARISOL IS TRULY THE BEST!!!</t>
+  </si>
+  <si>
+    <t>I was there for a weekend while taking a training and I had nice, relaxing time. The rooms were clean, housekeeping did a superb job each day and the service was great. MARISOL - what a gem this woman is! She worked with me prior to my stay because I had to pay one night on a company card and one night on my own card. and then they had to be tax exempt. Yeah, I was that pain in the butt guest you roll your eyes about - eek! She was just awesome. She was thorough, she was sweet as all heck and she had no gripes whatsoever about all my questions. Then once I got there, she was just as awesome in person. They all really are. Robert, the guy at the front desk had to reissue my keys twice (they kept de-scanninng) and then he changed my room since I was near the pool equipment (I wouldn't have cared durning the day, but at while sleeping it may have been a pain to listen too). Overall, I'm so pleased with this placed right from the getgo. I highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was there for a weekend while taking a training and I had nice, relaxing time. The rooms were clean, housekeeping did a superb job each day and the service was great. MARISOL - what a gem this woman is! She worked with me prior to my stay because I had to pay one night on a company card and one night on my own card. and then they had to be tax exempt. Yeah, I was that pain in the butt guest you roll your eyes about - eek! She was just awesome. She was thorough, she was sweet as all heck and she had no gripes whatsoever about all my questions. Then once I got there, she was just as awesome in person. They all really are. Robert, the guy at the front desk had to reissue my keys twice (they kept de-scanninng) and then he changed my room since I was near the pool equipment (I wouldn't have cared durning the day, but at while sleeping it may have been a pain to listen too). Overall, I'm so pleased with this placed right from the getgo. I highly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r433804269-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>433804269</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; Cozy</t>
+  </si>
+  <si>
+    <t>We stayed here after attending a party we got in kinda late but the front desk was super friendly when we booked the room it was 2 queen beds but we wanted a king front desk checked but there weren't any available Once we got in the room I was very satisfiedthe room was clean we had a microwave &amp; refrigerator the beds slept very comfortable....truly I felt at home we will definitely stay again Breakfast was good &amp; check out clerk made sure the reservation was added to my account so I could redeem my rewards Great Stay Great Value Clean Property Tip Top Customer Service You won't be disappointed MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We stayed here after attending a party we got in kinda late but the front desk was super friendly when we booked the room it was 2 queen beds but we wanted a king front desk checked but there weren't any available Once we got in the room I was very satisfiedthe room was clean we had a microwave &amp; refrigerator the beds slept very comfortable....truly I felt at home we will definitely stay again Breakfast was good &amp; check out clerk made sure the reservation was added to my account so I could redeem my rewards Great Stay Great Value Clean Property Tip Top Customer Service You won't be disappointed More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r425320469-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>425320469</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>A Must Stay</t>
+  </si>
+  <si>
+    <t>Omg the staff is friendly and very professional! The rooms are clean and comfortable. You get a set of firm and soft pillows! The fitness center is awesome! Every piece of equipment functions properly. The business center is well stocked and breakfast is hot, fresh and tasty!MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Omg the staff is friendly and very professional! The rooms are clean and comfortable. You get a set of firm and soft pillows! The fitness center is awesome! Every piece of equipment functions properly. The business center is well stocked and breakfast is hot, fresh and tasty!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r423164159-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>423164159</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>In my opinion this is the best hotel of this area. The hotel is new and my room was very perfect.The complete staff will go over their way to make your stay more pleasant. I know this because I stay here for more than 4 weeks. Highly recommendedMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>In my opinion this is the best hotel of this area. The hotel is new and my room was very perfect.The complete staff will go over their way to make your stay more pleasant. I know this because I stay here for more than 4 weeks. Highly recommendedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r423120479-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>423120479</t>
+  </si>
+  <si>
+    <t>Good night sleep</t>
+  </si>
+  <si>
+    <t>Quite place, friendly staff and great breakfast Neighbor restaurants are excellent in special Italianos, if you like Italian food this is the placeThe hotel shuttle is a great service and you will never be late for your flight MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Quite place, friendly staff and great breakfast Neighbor restaurants are excellent in special Italianos, if you like Italian food this is the placeThe hotel shuttle is a great service and you will never be late for your flight More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r411899273-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>411899273</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place </t>
+  </si>
+  <si>
+    <t>We stayed here and the hotel was very nice and clean.  Staff was attentive and we had a pleasant time. We would definitely stay here again and recommend this hotel to anyone. For anyone looking for a decent priced, good quality hotel, and a clean rooms this hotel has a very good location and price. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here and the hotel was very nice and clean.  Staff was attentive and we had a pleasant time. We would definitely stay here again and recommend this hotel to anyone. For anyone looking for a decent priced, good quality hotel, and a clean rooms this hotel has a very good location and price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r411896931-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>411896931</t>
+  </si>
+  <si>
+    <t>GREAT TIME</t>
+  </si>
+  <si>
+    <t>Excellent service, wonderful staff, very clean. We loved the hot breakfast and the Saltwater pool. Awesome place. We will back soon. Staff very friendly and professional. Near all the good restaurants in the neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent service, wonderful staff, very clean. We loved the hot breakfast and the Saltwater pool. Awesome place. We will back soon. Staff very friendly and professional. Near all the good restaurants in the neighborhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r409324171-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>409324171</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>One of the best places I've ever stayed, hands down. The rates are reasonable, Sarah (front desk) was quick getting me checked in. Brandon was extremely helpful, showing us the amenities and letting us know which local places were the best to eat at. The breakfast is AWESOME! I love the cheese omelettes and cinnamon rolls. Next time we are in the Humble, TX area, we are staying here for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>One of the best places I've ever stayed, hands down. The rates are reasonable, Sarah (front desk) was quick getting me checked in. Brandon was extremely helpful, showing us the amenities and letting us know which local places were the best to eat at. The breakfast is AWESOME! I love the cheese omelettes and cinnamon rolls. Next time we are in the Humble, TX area, we are staying here for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r409021674-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>409021674</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>I  just wanted to relax and rest.  My friend recommend this Holiday Inn, and it lived up to all my expectations and more.  My room was clean, free WiFi and breakfast, and an assortment of restaurants nearby.  It was a very much welcomed break, and I  enjoyed it.  Did I mention how professional and courteous the staff was!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>I  just wanted to relax and rest.  My friend recommend this Holiday Inn, and it lived up to all my expectations and more.  My room was clean, free WiFi and breakfast, and an assortment of restaurants nearby.  It was a very much welcomed break, and I  enjoyed it.  Did I mention how professional and courteous the staff was!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r392539605-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>392539605</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Repeat customer</t>
+  </si>
+  <si>
+    <t>Every year I visit my family in Texas and this is where I've stayed the last three years. Great for families, great if you're alone. There is an outdoor pool and free breakfast every morning. The breakfast changes a little each day, like one day they didn't have sausage and gravy and the next they did. However, they always have things like waffles, yogurt, cinnamon rolls, cereal, fruit. It's the hot food that changes a little each day. The only thing I don't like is their little shop for drinks, toiletries, etc. should have little one serving bottles of wine or something.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Every year I visit my family in Texas and this is where I've stayed the last three years. Great for families, great if you're alone. There is an outdoor pool and free breakfast every morning. The breakfast changes a little each day, like one day they didn't have sausage and gravy and the next they did. However, they always have things like waffles, yogurt, cinnamon rolls, cereal, fruit. It's the hot food that changes a little each day. The only thing I don't like is their little shop for drinks, toiletries, etc. should have little one serving bottles of wine or something.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r384581318-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>384581318</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Professional and Clean</t>
+  </si>
+  <si>
+    <t>I have stayed here several times over the past year for business and have never had a problem. Staff is nice, professional, very accommodating and the hotel is clean and still looks brand new. Pool and hot tub area is nice to hang out in. Cookies in the lobby are always a nice treat to have when coming in. Espire Elite member MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here several times over the past year for business and have never had a problem. Staff is nice, professional, very accommodating and the hotel is clean and still looks brand new. Pool and hot tub area is nice to hang out in. Cookies in the lobby are always a nice treat to have when coming in. Espire Elite member More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r371745502-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>371745502</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel &amp; Excellent Customer Service </t>
+  </si>
+  <si>
+    <t>I traveled to Humble from Fort Hood to visit some old Army battle buddies of mine and family near by. Although there isn't any room service, the room was clean. The one problem that I had was that as soon as I walked into the room, it smelled like urine. The desk clerk came upstairs and sprayed the room throughout with air freshener. The breakfast was pretty good also. My friends and I had a pleasant time here. The staff members were very professional and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2016</t>
+  </si>
+  <si>
+    <t>I traveled to Humble from Fort Hood to visit some old Army battle buddies of mine and family near by. Although there isn't any room service, the room was clean. The one problem that I had was that as soon as I walked into the room, it smelled like urine. The desk clerk came upstairs and sprayed the room throughout with air freshener. The breakfast was pretty good also. My friends and I had a pleasant time here. The staff members were very professional and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r369964641-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>369964641</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, Great Staff.......Best hotel to stay at while on business or any event I guess! The Staff is very Friendly and Helpful, Hotel is Extremely Clean......And price paid for the room is also Reasonable!MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, Great Staff.......Best hotel to stay at while on business or any event I guess! The Staff is very Friendly and Helpful, Hotel is Extremely Clean......And price paid for the room is also Reasonable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r368978060-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>368978060</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Top Hotel, great staff</t>
+  </si>
+  <si>
+    <t>Very modern and highly recommended hotel with new, spacious rooms.Very very friendly and helpful staff.Great breakfast buffet, great pool areaA very modern, nice lobby.Best hotel we had during our 2-weeks trip to Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded May 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2016</t>
+  </si>
+  <si>
+    <t>Very modern and highly recommended hotel with new, spacious rooms.Very very friendly and helpful staff.Great breakfast buffet, great pool areaA very modern, nice lobby.Best hotel we had during our 2-weeks trip to Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r360211084-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>360211084</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay return trip from New Orleans</t>
+  </si>
+  <si>
+    <t>Based on Trip advisor reviews &amp; the free airport shuttle I chose this hotel out of all in the Houston area &amp; it was the right choice. We stayed in 3 hotels in 5 days &amp; this one was the best. From the welcome from Daniel @ the front desk, to the crib already being set up in one of the rooms as I had requested on my reservation. To the no hesitation in providing late check out as my flight was later in the afternoon &amp; to the prompt &amp; pleasant shuttle ride to the airport.  Rooms were spacious &amp; emaculate.  Breakfast was plentiful &amp; I really got that feeling of being a very important guest. I would highly recommend a stay at this hotel &amp; if ever in the area would stay here again. If I could give 10 stars I would. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Based on Trip advisor reviews &amp; the free airport shuttle I chose this hotel out of all in the Houston area &amp; it was the right choice. We stayed in 3 hotels in 5 days &amp; this one was the best. From the welcome from Daniel @ the front desk, to the crib already being set up in one of the rooms as I had requested on my reservation. To the no hesitation in providing late check out as my flight was later in the afternoon &amp; to the prompt &amp; pleasant shuttle ride to the airport.  Rooms were spacious &amp; emaculate.  Breakfast was plentiful &amp; I really got that feeling of being a very important guest. I would highly recommend a stay at this hotel &amp; if ever in the area would stay here again. If I could give 10 stars I would. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r354061643-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>354061643</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Great Second Visit</t>
+  </si>
+  <si>
+    <t>Generally when looking for a mid priced overnight stay I search Tripadvisor by location and follow the reviews.Last year I found this hotel that way and booked it for my visit to the area.I returned to Houston this year and because of my stay last year decided to return to this Holiday Inn Express.Both visits were extremely pleasant.The rooms feel new and fresh. The night desk manager was very polite and helpful at check in. The breakfast while fairly typical for these type hotels is served in a bright, nicely decorated seating area. The business center is more than adequate.Overall one of the best of the type accommodation I have every visited.I would drive an extra 5-10 miles to return to this hotel if my travels bring me back to the north side of Houston again.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded March 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2016</t>
+  </si>
+  <si>
+    <t>Generally when looking for a mid priced overnight stay I search Tripadvisor by location and follow the reviews.Last year I found this hotel that way and booked it for my visit to the area.I returned to Houston this year and because of my stay last year decided to return to this Holiday Inn Express.Both visits were extremely pleasant.The rooms feel new and fresh. The night desk manager was very polite and helpful at check in. The breakfast while fairly typical for these type hotels is served in a bright, nicely decorated seating area. The business center is more than adequate.Overall one of the best of the type accommodation I have every visited.I would drive an extra 5-10 miles to return to this hotel if my travels bring me back to the north side of Houston again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r350673646-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>350673646</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Helpful staff</t>
+  </si>
+  <si>
+    <t>Accommodations were very good, but the best feature was the helpful staff.  I occasionally travel for my job and needed help with some directions.  There was great effort to assist me.  The pleasant and helpful attitude of staff continued when I arrived at the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Accommodations were very good, but the best feature was the helpful staff.  I occasionally travel for my job and needed help with some directions.  There was great effort to assist me.  The pleasant and helpful attitude of staff continued when I arrived at the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r344397587-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>344397587</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Great Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>This is a great HIE and seems new. I had a suite and it was quite big and seemed a bit empty. Bed was great. Has a nice barbecue next door.Front desk was nice and had some parking spaces. A bit far from everything though but would definitely come back if in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded February 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2016</t>
+  </si>
+  <si>
+    <t>This is a great HIE and seems new. I had a suite and it was quite big and seemed a bit empty. Bed was great. Has a nice barbecue next door.Front desk was nice and had some parking spaces. A bit far from everything though but would definitely come back if in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r339735941-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>339735941</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Very nice HIE</t>
+  </si>
+  <si>
+    <t>Nice moderate hotel with typical HIE amenities.  Friendly staff, very clean and well kept.  Road (FM1960) is still very busy, but the hotel is convenient to fast food, sit down restaurants and Lake Houston.  I stay here pretty regularly.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Nice moderate hotel with typical HIE amenities.  Friendly staff, very clean and well kept.  Road (FM1960) is still very busy, but the hotel is convenient to fast food, sit down restaurants and Lake Houston.  I stay here pretty regularly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r339592125-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>339592125</t>
+  </si>
+  <si>
+    <t>Oakwood  Church of  Christ. Ladies Retreat</t>
+  </si>
+  <si>
+    <t>We  chose this hotel two years in a row because of its outstanding service from the management to the staff , that made our Ladies Retreat a total success !!!  The best hotel we've stayed in thus far !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>We  chose this hotel two years in a row because of its outstanding service from the management to the staff , that made our Ladies Retreat a total success !!!  The best hotel we've stayed in thus far !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r323047457-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>323047457</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>One Short Night...</t>
+  </si>
+  <si>
+    <t>In town for a wedding.  The bride had selected HIE to block rooms for out-of-town guests at HIE.  Good selection.  Check-in was very quick--and we were in a huge hurry because, after getting caught in traffic, we had 25 minutes to check in, change clothes and get to the church.  
+The hotel location is great, with a lot of restaurants nearby, as well as grocery and drugstores closeby in case you forget something.  The road, FM1960 has crazy traffic, but we didn't have any trouble at all getting in and out of the hotel parking lot.  
+The wedding ended pretty late, so we were extremely tired when we got back to the hotel and were happy we had checked in earlier.   We were able to park right outside the side door, which was nice.  The parking lot was very well lit.  
+We had a queen room, so there were two queen beds, a bedside table between, a desk and desk chair, dresser, flat panel tv, refridgerator and microwave, coffee pot, upholstered chair, and bench for luggage.  The closet had a floor-to-ceiling mirror door, which was nice to be able to see how you look before you walk out the door.  There was an ironing board and iron.  The bathroom had one sink, toilet, and tub/shower combo.  The counter was long enough for toiletries.  Adequate number of towels -- three towels for three guests.  
+The hotel was very quiet, so sleep...In town for a wedding.  The bride had selected HIE to block rooms for out-of-town guests at HIE.  Good selection.  Check-in was very quick--and we were in a huge hurry because, after getting caught in traffic, we had 25 minutes to check in, change clothes and get to the church.  The hotel location is great, with a lot of restaurants nearby, as well as grocery and drugstores closeby in case you forget something.  The road, FM1960 has crazy traffic, but we didn't have any trouble at all getting in and out of the hotel parking lot.  The wedding ended pretty late, so we were extremely tired when we got back to the hotel and were happy we had checked in earlier.   We were able to park right outside the side door, which was nice.  The parking lot was very well lit.  We had a queen room, so there were two queen beds, a bedside table between, a desk and desk chair, dresser, flat panel tv, refridgerator and microwave, coffee pot, upholstered chair, and bench for luggage.  The closet had a floor-to-ceiling mirror door, which was nice to be able to see how you look before you walk out the door.  There was an ironing board and iron.  The bathroom had one sink, toilet, and tub/shower combo.  The counter was long enough for toiletries.  Adequate number of towels -- three towels for three guests.  The hotel was very quiet, so sleep was great....until about 3am when the a/c started making noise and woke us up.  At first it sounded like a loud wind storm that just wouldn't stop, but loud enough to wake everyone up.  Once we all figured we could put pillows over our heads to muffle the noise, we were all able to go back to sleep. Soooo.... they have an ample number of pillows.  Breakfast was great - eggs, sausage, bacon, fruit, pastries, just whatever you want.  Checkout was very easy -- no need to go downstairs to check out unless the bill they slip under the door has something that needs to be changed.The room and (from what I could tell) the hotel were clean, and SAFE, which are my two top priorities.  I would definitely stay here again and would recommend to friends/family.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2015</t>
+  </si>
+  <si>
+    <t>In town for a wedding.  The bride had selected HIE to block rooms for out-of-town guests at HIE.  Good selection.  Check-in was very quick--and we were in a huge hurry because, after getting caught in traffic, we had 25 minutes to check in, change clothes and get to the church.  
+The hotel location is great, with a lot of restaurants nearby, as well as grocery and drugstores closeby in case you forget something.  The road, FM1960 has crazy traffic, but we didn't have any trouble at all getting in and out of the hotel parking lot.  
+The wedding ended pretty late, so we were extremely tired when we got back to the hotel and were happy we had checked in earlier.   We were able to park right outside the side door, which was nice.  The parking lot was very well lit.  
+We had a queen room, so there were two queen beds, a bedside table between, a desk and desk chair, dresser, flat panel tv, refridgerator and microwave, coffee pot, upholstered chair, and bench for luggage.  The closet had a floor-to-ceiling mirror door, which was nice to be able to see how you look before you walk out the door.  There was an ironing board and iron.  The bathroom had one sink, toilet, and tub/shower combo.  The counter was long enough for toiletries.  Adequate number of towels -- three towels for three guests.  
+The hotel was very quiet, so sleep...In town for a wedding.  The bride had selected HIE to block rooms for out-of-town guests at HIE.  Good selection.  Check-in was very quick--and we were in a huge hurry because, after getting caught in traffic, we had 25 minutes to check in, change clothes and get to the church.  The hotel location is great, with a lot of restaurants nearby, as well as grocery and drugstores closeby in case you forget something.  The road, FM1960 has crazy traffic, but we didn't have any trouble at all getting in and out of the hotel parking lot.  The wedding ended pretty late, so we were extremely tired when we got back to the hotel and were happy we had checked in earlier.   We were able to park right outside the side door, which was nice.  The parking lot was very well lit.  We had a queen room, so there were two queen beds, a bedside table between, a desk and desk chair, dresser, flat panel tv, refridgerator and microwave, coffee pot, upholstered chair, and bench for luggage.  The closet had a floor-to-ceiling mirror door, which was nice to be able to see how you look before you walk out the door.  There was an ironing board and iron.  The bathroom had one sink, toilet, and tub/shower combo.  The counter was long enough for toiletries.  Adequate number of towels -- three towels for three guests.  The hotel was very quiet, so sleep was great....until about 3am when the a/c started making noise and woke us up.  At first it sounded like a loud wind storm that just wouldn't stop, but loud enough to wake everyone up.  Once we all figured we could put pillows over our heads to muffle the noise, we were all able to go back to sleep. Soooo.... they have an ample number of pillows.  Breakfast was great - eggs, sausage, bacon, fruit, pastries, just whatever you want.  Checkout was very easy -- no need to go downstairs to check out unless the bill they slip under the door has something that needs to be changed.The room and (from what I could tell) the hotel were clean, and SAFE, which are my two top priorities.  I would definitely stay here again and would recommend to friends/family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r321040986-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>321040986</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Rooms are nice.   The rooms and common areas were very clean.  Service excellent.  Breakfast good.   An unexpected benefit.....They provided shuttle service to a wedding.  A little noisy but no more than other  hotels at a comparable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Rooms are nice.   The rooms and common areas were very clean.  Service excellent.  Breakfast good.   An unexpected benefit.....They provided shuttle service to a wedding.  A little noisy but no more than other  hotels at a comparable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r320495694-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>320495694</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Great option close to the airport</t>
+  </si>
+  <si>
+    <t>This hotel is in magnificent conditions, very clean, very spacious, and very well maintained. By far the best IHG hotel I have visited lately. My room was next to thhe elevator, what I usually hate and avoid, but It was late and I was very tired. It doesn't make a sound!! Everything worked great in the room, and the bathroom besides big, was really clean! Breakfast area in a huge room, you can tell the hotel has a great staff, hope all kf them were like this one.The airport ia about 8 mi but is a pretty quick drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is in magnificent conditions, very clean, very spacious, and very well maintained. By far the best IHG hotel I have visited lately. My room was next to thhe elevator, what I usually hate and avoid, but It was late and I was very tired. It doesn't make a sound!! Everything worked great in the room, and the bathroom besides big, was really clean! Breakfast area in a huge room, you can tell the hotel has a great staff, hope all kf them were like this one.The airport ia about 8 mi but is a pretty quick drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r313966119-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>313966119</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow! </t>
+  </si>
+  <si>
+    <t>Well. First off! This room was HUGE! I really enjoyed this hotel.. The location was not my favorite. But that's just a personal preference for communities. This hotel was right down the road from nice restaurants in Atascocita and then only a short drive down the road to Deerbrook Mall and some more great restaurants! But, far enough from attractions that traffic was minimal. It was quiet and clean. Staff was more than friendly. Nice little pool with shockingly clean outside restrooms. Nice comfortable bed! Definitely would not mind staying here again! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Well. First off! This room was HUGE! I really enjoyed this hotel.. The location was not my favorite. But that's just a personal preference for communities. This hotel was right down the road from nice restaurants in Atascocita and then only a short drive down the road to Deerbrook Mall and some more great restaurants! But, far enough from attractions that traffic was minimal. It was quiet and clean. Staff was more than friendly. Nice little pool with shockingly clean outside restrooms. Nice comfortable bed! Definitely would not mind staying here again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r313528254-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>313528254</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>Like new</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for bussiness because it was close to my appointment. I travel every week and in a new hotel every week. Usually I stay at Hilton but none were nearby, so I thought I would try this Holiday Inn Express because of the good ratings. I was not disappointed, the rooms are large, clean and service was great. I may start checking Holiday Inn hotels more often.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded September 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for bussiness because it was close to my appointment. I travel every week and in a new hotel every week. Usually I stay at Hilton but none were nearby, so I thought I would try this Holiday Inn Express because of the good ratings. I was not disappointed, the rooms are large, clean and service was great. I may start checking Holiday Inn hotels more often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r313519182-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>313519182</t>
+  </si>
+  <si>
+    <t>Very clean!</t>
+  </si>
+  <si>
+    <t>Room was very comfortable and clean. Will definitely stay again!Staff was exceptionally friendly and helpful.  Access was simple and grounds were well kept. I was here in business for one night and looked for a place to stay that was convenient in my travels from Baton Rouge to Houston area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was very comfortable and clean. Will definitely stay again!Staff was exceptionally friendly and helpful.  Access was simple and grounds were well kept. I was here in business for one night and looked for a place to stay that was convenient in my travels from Baton Rouge to Houston area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r293616538-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>293616538</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Confort and New</t>
+  </si>
+  <si>
+    <t>Very nice hotel and very new as well. Great location for someone who wants to be around Kingwood-Humble area.The rooms are big and everything looked new, the only down side was breakfast, not a lot of options.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel and very new as well. Great location for someone who wants to be around Kingwood-Humble area.The rooms are big and everything looked new, the only down side was breakfast, not a lot of options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r291876236-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>291876236</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>Mr. Alan was very nice to deal with, gave me the room I ask for. Will stay here when every I come back into town. This hotel is very new and in a good location to the airport, strip mall, and the restaurant next door is very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Mr. Alan was very nice to deal with, gave me the room I ask for. Will stay here when every I come back into town. This hotel is very new and in a good location to the airport, strip mall, and the restaurant next door is very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r290906301-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>290906301</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Everyone is so nice</t>
+  </si>
+  <si>
+    <t>The best hotel in Humble/Atascocita. Everyone is so nice and the hotel is so clean and comfortable. Make sure to ask for a suite! Sometimes they upgrade for free and its so great when traveling with the kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The best hotel in Humble/Atascocita. Everyone is so nice and the hotel is so clean and comfortable. Make sure to ask for a suite! Sometimes they upgrade for free and its so great when traveling with the kids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r284586550-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>284586550</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>A Very Clean and Relaxing Place to Stay</t>
+  </si>
+  <si>
+    <t>We enjoyed a nice night at this hotel. The lobby and room were both spotless with updated furnishings and decor. The staff at the desks were professional and gave us all the information we needed. The breakfast was also nice and the hostess was inviting and gracious. We will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>We enjoyed a nice night at this hotel. The lobby and room were both spotless with updated furnishings and decor. The staff at the desks were professional and gave us all the information we needed. The breakfast was also nice and the hostess was inviting and gracious. We will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r282902715-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>282902715</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Mr Alex Ramey</t>
+  </si>
+  <si>
+    <t>Hotel is so wonderful. Staff is great. Rooms are always nice and clean. They even smell clean. Cleaning staff does an excellant job. I have had no issues staying the last month with them. Outside is very clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded June 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is so wonderful. Staff is great. Rooms are always nice and clean. They even smell clean. Cleaning staff does an excellant job. I have had no issues staying the last month with them. Outside is very clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r282675095-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>282675095</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>They treated us like family...</t>
+  </si>
+  <si>
+    <t>Our house had water damage last summer. So we checked in Holiday Inn Express at Atascosita. Eventually we stayed there for all total of 40 days, until all the repairs were done in our house. During all that time, they treated us like family, provided us with every thing we needed. They were the best comfort during that stressful time. Thank you so much!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Our house had water damage last summer. So we checked in Holiday Inn Express at Atascosita. Eventually we stayed there for all total of 40 days, until all the repairs were done in our house. During all that time, they treated us like family, provided us with every thing we needed. They were the best comfort during that stressful time. Thank you so much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r259456967-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>259456967</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Paper thin walls</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights. The staff was very pleasant, the hotel is clean and spacious, and the food is good enough. But the walls are so thin that it's possible to not be able to sleep. First I had one neighbor with the TV too loud until about 12:40am. I called the front desk and after a while it was quiet for about 20 minutes and then the other neighbor just got there and was a family talking and talking for about an hour. After they quieted down I was drifting off and then one of them had a cough. Last time I looked at the clock was 3:05am with them still coughing. While I felt compassion for them, I also wanted sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded March 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2015</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights. The staff was very pleasant, the hotel is clean and spacious, and the food is good enough. But the walls are so thin that it's possible to not be able to sleep. First I had one neighbor with the TV too loud until about 12:40am. I called the front desk and after a while it was quiet for about 20 minutes and then the other neighbor just got there and was a family talking and talking for about an hour. After they quieted down I was drifting off and then one of them had a cough. Last time I looked at the clock was 3:05am with them still coughing. While I felt compassion for them, I also wanted sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r259441373-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>259441373</t>
+  </si>
+  <si>
+    <t>Brand New!!</t>
+  </si>
+  <si>
+    <t>This is a very clean brand new hotel option in HumbleNot the most convenient location but nice enough to go a little out of the wayThe staff was very friendly and the area was quite so a good nights sleep is no problemI would recommend it and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very clean brand new hotel option in HumbleNot the most convenient location but nice enough to go a little out of the wayThe staff was very friendly and the area was quite so a good nights sleep is no problemI would recommend it and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r249367114-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>249367114</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Outstanding in every way</t>
+  </si>
+  <si>
+    <t>My wife and I spent four nights here in early January and had an outstanding experience in every regard. This hotel is new - open only about 7 months - so everything is in great shape in terms of the facilities. The staff was friendly, helpful and very efficient. The breakfast was nicely prepared and presented, and the selection of both hot food and other items was better than we expected for a hotel in this price range. Our room was very quiet and the bed was really comfortable. Decor is very nice. We would certainly stay here again if we need lodging in this area. The hotel is about 20 minutes from the Houston airport (IAH) and just south of the Kingwood development.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded January 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I spent four nights here in early January and had an outstanding experience in every regard. This hotel is new - open only about 7 months - so everything is in great shape in terms of the facilities. The staff was friendly, helpful and very efficient. The breakfast was nicely prepared and presented, and the selection of both hot food and other items was better than we expected for a hotel in this price range. Our room was very quiet and the bed was really comfortable. Decor is very nice. We would certainly stay here again if we need lodging in this area. The hotel is about 20 minutes from the Houston airport (IAH) and just south of the Kingwood development.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r240901667-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>240901667</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I stayed here on a last minute trip based on the positive reviews and feedback.  I was incredibly pleased with this establishment. The rooms were clean and spacious. The free breakfast was fresh and offered plenty of options.  The staff and management couldn't have been more helpful and friendly.  All in all, this hotel was a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded November 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here on a last minute trip based on the positive reviews and feedback.  I was incredibly pleased with this establishment. The rooms were clean and spacious. The free breakfast was fresh and offered plenty of options.  The staff and management couldn't have been more helpful and friendly.  All in all, this hotel was a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r240858016-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>240858016</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>Unfortunately my wife,myself and my brother had to travel to Houston for a hospital visit and we chose to stay here out of all our other options. This place is brand new and everybody knows a brand new hotel is better than a 20+yr old hotel. Front desk clerks/management were extremely kind and helpful with anything needed.. They have a 24hr little snack area right by the front desk and actually has a plethora of options.. We stayed in a king suite with kitchen and room was really big and had great cable options for those who like to watch tv to end their day/night. The free breakfast is actually really good.. Way more options than just the usual cereal,bagel,toast hotels give out. This place had great biscuits&amp;gravy, sausage and even a pancake maker that all you had to do was press 1 button and less than 2 minutes later you have 2 silver dollar cakes on your plate.. Not too shabby.. Camille is the lady who works the breakfast area and was extremely nice and helpful and made you feel extremely welcome there and she literally would probably do anything you asked her to. Non stop working and made sure to ask every guest how they slept the night before. I've been traveling for 15+years and thats the 1st time I've been asked that question. The little things go a long way and i believe she is proof of...Unfortunately my wife,myself and my brother had to travel to Houston for a hospital visit and we chose to stay here out of all our other options. This place is brand new and everybody knows a brand new hotel is better than a 20+yr old hotel. Front desk clerks/management were extremely kind and helpful with anything needed.. They have a 24hr little snack area right by the front desk and actually has a plethora of options.. We stayed in a king suite with kitchen and room was really big and had great cable options for those who like to watch tv to end their day/night. The free breakfast is actually really good.. Way more options than just the usual cereal,bagel,toast hotels give out. This place had great biscuits&amp;gravy, sausage and even a pancake maker that all you had to do was press 1 button and less than 2 minutes later you have 2 silver dollar cakes on your plate.. Not too shabby.. Camille is the lady who works the breakfast area and was extremely nice and helpful and made you feel extremely welcome there and she literally would probably do anything you asked her to. Non stop working and made sure to ask every guest how they slept the night before. I've been traveling for 15+years and thats the 1st time I've been asked that question. The little things go a long way and i believe she is proof of that.. I would 100% stay here again and actually might be checking in here again next week unfortunately.MoreShow less</t>
+  </si>
+  <si>
+    <t>Unfortunately my wife,myself and my brother had to travel to Houston for a hospital visit and we chose to stay here out of all our other options. This place is brand new and everybody knows a brand new hotel is better than a 20+yr old hotel. Front desk clerks/management were extremely kind and helpful with anything needed.. They have a 24hr little snack area right by the front desk and actually has a plethora of options.. We stayed in a king suite with kitchen and room was really big and had great cable options for those who like to watch tv to end their day/night. The free breakfast is actually really good.. Way more options than just the usual cereal,bagel,toast hotels give out. This place had great biscuits&amp;gravy, sausage and even a pancake maker that all you had to do was press 1 button and less than 2 minutes later you have 2 silver dollar cakes on your plate.. Not too shabby.. Camille is the lady who works the breakfast area and was extremely nice and helpful and made you feel extremely welcome there and she literally would probably do anything you asked her to. Non stop working and made sure to ask every guest how they slept the night before. I've been traveling for 15+years and thats the 1st time I've been asked that question. The little things go a long way and i believe she is proof of...Unfortunately my wife,myself and my brother had to travel to Houston for a hospital visit and we chose to stay here out of all our other options. This place is brand new and everybody knows a brand new hotel is better than a 20+yr old hotel. Front desk clerks/management were extremely kind and helpful with anything needed.. They have a 24hr little snack area right by the front desk and actually has a plethora of options.. We stayed in a king suite with kitchen and room was really big and had great cable options for those who like to watch tv to end their day/night. The free breakfast is actually really good.. Way more options than just the usual cereal,bagel,toast hotels give out. This place had great biscuits&amp;gravy, sausage and even a pancake maker that all you had to do was press 1 button and less than 2 minutes later you have 2 silver dollar cakes on your plate.. Not too shabby.. Camille is the lady who works the breakfast area and was extremely nice and helpful and made you feel extremely welcome there and she literally would probably do anything you asked her to. Non stop working and made sure to ask every guest how they slept the night before. I've been traveling for 15+years and thats the 1st time I've been asked that question. The little things go a long way and i believe she is proof of that.. I would 100% stay here again and actually might be checking in here again next week unfortunately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r240857774-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>240857774</t>
+  </si>
+  <si>
+    <t>Lifesaver</t>
+  </si>
+  <si>
+    <t>I recently had to visit Humble last minute. After reading the reviews, we booked at this hotel. I was shocked at how nice this hotel was. It looks brand new and the rooms are spacious and clean. The staff was impeccable. From check in to check out we didn't have one issue. The staff and management deserves huge kudos. Their customer service was on par with four and five star hotels. I have stayed all over and tend to be a hotel snob, but my preconceived notions about holiday inns couldn't have been more wrong. All in all, we had a great stay and would definitely book in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently had to visit Humble last minute. After reading the reviews, we booked at this hotel. I was shocked at how nice this hotel was. It looks brand new and the rooms are spacious and clean. The staff was impeccable. From check in to check out we didn't have one issue. The staff and management deserves huge kudos. Their customer service was on par with four and five star hotels. I have stayed all over and tend to be a hotel snob, but my preconceived notions about holiday inns couldn't have been more wrong. All in all, we had a great stay and would definitely book in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r232476629-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>232476629</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>One of the best!</t>
+  </si>
+  <si>
+    <t>This is hotel is great. From the laundry service available on the 2nd floor, to fresh warm cookies and check in, my stay was perfect. Christopher and Camille really stood out to me as they were extremely nice and professional. Location was perfect as there are dozens of restaurants, a few grocery stores and even a Walmart all within 1 mile which is great for a business traveler. Thanks, guys!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded October 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2014</t>
+  </si>
+  <si>
+    <t>This is hotel is great. From the laundry service available on the 2nd floor, to fresh warm cookies and check in, my stay was perfect. Christopher and Camille really stood out to me as they were extremely nice and professional. Location was perfect as there are dozens of restaurants, a few grocery stores and even a Walmart all within 1 mile which is great for a business traveler. Thanks, guys!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r231449974-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>231449974</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>The PERFECT place to unwind.</t>
+  </si>
+  <si>
+    <t>Beautiful facility, exceptionally clean and a staff that is par excellence. The front desk far surpasses my recent travel experiences. Ms. M was a delight and very helpful. I hope the rest of my week goes as well here in Houston. Drive a few more minutes to get here, it's worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Beautiful facility, exceptionally clean and a staff that is par excellence. The front desk far surpasses my recent travel experiences. Ms. M was a delight and very helpful. I hope the rest of my week goes as well here in Houston. Drive a few more minutes to get here, it's worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r230558134-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>230558134</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Wow. Hard to make me this happy, but yeah!</t>
+  </si>
+  <si>
+    <t>This place is fantastic! The GM , James must know his stuff. Service is impeccable, all smiles, professional, and helpful staff. The hotel is beautiful inside and out, landscaping, fountains, design package, just everything. I am an IHG GM for another hotel here for a class and could not be happier with this hotel. Allen at the desk was super friendly and so was the girl who checked us in last night. The only bad thing I can say is she didn't have a name tag and I don't recall her saying her name. I should have asked because she deserves recognition! So staff my only suggestion is that. Wear your name tags because I am sure you will be getting many compliments. Cheers and congrats to a beautiful new hotel with great service!MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>This place is fantastic! The GM , James must know his stuff. Service is impeccable, all smiles, professional, and helpful staff. The hotel is beautiful inside and out, landscaping, fountains, design package, just everything. I am an IHG GM for another hotel here for a class and could not be happier with this hotel. Allen at the desk was super friendly and so was the girl who checked us in last night. The only bad thing I can say is she didn't have a name tag and I don't recall her saying her name. I should have asked because she deserves recognition! So staff my only suggestion is that. Wear your name tags because I am sure you will be getting many compliments. Cheers and congrats to a beautiful new hotel with great service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r220025920-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>220025920</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Exceeded expectations</t>
+  </si>
+  <si>
+    <t>Stayed for 5 nights.  Comfortable, clean and well staffed. New hotel not far from shopping, restaurants.  Not much night life in the immediate area but perfect location for peaceful, restful stay. Complimentary breakfast was well stocked and contained a good variety. Nice fitness center and pool.  Warm, welcoming, professional and cheerful staff. Upgraded to suite for a bit more space. Breakfast coordinator Camille was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded August 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2014</t>
+  </si>
+  <si>
+    <t>Stayed for 5 nights.  Comfortable, clean and well staffed. New hotel not far from shopping, restaurants.  Not much night life in the immediate area but perfect location for peaceful, restful stay. Complimentary breakfast was well stocked and contained a good variety. Nice fitness center and pool.  Warm, welcoming, professional and cheerful staff. Upgraded to suite for a bit more space. Breakfast coordinator Camille was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r218591762-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>218591762</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>New Hotel. Modern, clean, nice rooms and very friendly staff</t>
+  </si>
+  <si>
+    <t>I was in the northeast Houston area on a business trip and was pleased to find this well-priced hotel located close to IAH (~20 minutes away). I found the hotel staff to be friendly, very helpful and conscientious. Hotel and rooms were modern, clean, comfortable and above-average for this chain. The nice hot tub and pool area were also a bonus! I'll definitely be back when travelling to Southeast Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>I was in the northeast Houston area on a business trip and was pleased to find this well-priced hotel located close to IAH (~20 minutes away). I found the hotel staff to be friendly, very helpful and conscientious. Hotel and rooms were modern, clean, comfortable and above-average for this chain. The nice hot tub and pool area were also a bonus! I'll definitely be back when travelling to Southeast Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r217903680-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>217903680</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Mixed Feelings</t>
+  </si>
+  <si>
+    <t>We were there for about 2 weeks and had to change rooms 3 times. 1st had ants- up grade - 2nd was over $200 a night - moved to a cheaper room 3rd $199 and half the size. Originally started at $124. But newer place, clean and breakfast lady was amazing - very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2014</t>
+  </si>
+  <si>
+    <t>We were there for about 2 weeks and had to change rooms 3 times. 1st had ants- up grade - 2nd was over $200 a night - moved to a cheaper room 3rd $199 and half the size. Originally started at $124. But newer place, clean and breakfast lady was amazing - very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r209721442-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>209721442</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Newer Hotel / Excellent Value</t>
+  </si>
+  <si>
+    <t>A business associate and I were stranded due to weather at IAH and had to stay a night near the airport.  Not a lot of options for rooms but found this location about 10 miles from the airport.  Took a cab ($35) and checked in.  Great service, good breakfast and they had a cab ordered for us in the morning.  Rooms were clean and fresh.  Highly recommend this property for the money.  Even with the cab ride we ended up paying less than we would have closer to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2014</t>
+  </si>
+  <si>
+    <t>A business associate and I were stranded due to weather at IAH and had to stay a night near the airport.  Not a lot of options for rooms but found this location about 10 miles from the airport.  Took a cab ($35) and checked in.  Great service, good breakfast and they had a cab ordered for us in the morning.  Rooms were clean and fresh.  Highly recommend this property for the money.  Even with the cab ride we ended up paying less than we would have closer to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d6439277-r206262674-Holiday_Inn_Express_Suites_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>206262674</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Beautiful, New, Holiday Inn</t>
+  </si>
+  <si>
+    <t>Just got back from our stay at this brand new Holiday Inn. James, the manager, was very helpful with the booking. All staff was very courteous. We booked a suite, to have more room. It was very lovely--separate combination kitchen, lounge and TV area. The bedroom had twin queen size beds, a desk and TV on a dresser. Lovely bathroom done in porcelain tile with quartz counter top. Kitchen had sink, microwave and refrigerator. Sofa was convertible into another bed. Landscaping around the hotel looked great. Nice pool, although we didn't use it. There was a free breakfast. Not home-cooked, but there was plenty of variety. Good coffee! Free WiFi. Plenty of electrical outlets. My wife and I were very pleased and would stay there again. Located in an area where there are lots of restaurants and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Holiday Inn Express &amp; Suites Atascocita, responded to this reviewResponded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2014</t>
+  </si>
+  <si>
+    <t>Just got back from our stay at this brand new Holiday Inn. James, the manager, was very helpful with the booking. All staff was very courteous. We booked a suite, to have more room. It was very lovely--separate combination kitchen, lounge and TV area. The bedroom had twin queen size beds, a desk and TV on a dresser. Lovely bathroom done in porcelain tile with quartz counter top. Kitchen had sink, microwave and refrigerator. Sofa was convertible into another bed. Landscaping around the hotel looked great. Nice pool, although we didn't use it. There was a free breakfast. Not home-cooked, but there was plenty of variety. Good coffee! Free WiFi. Plenty of electrical outlets. My wife and I were very pleased and would stay there again. Located in an area where there are lots of restaurants and shopping.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2493,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2525,5340 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>175</v>
+      </c>
+      <c r="X19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>227</v>
+      </c>
+      <c r="X26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>250</v>
+      </c>
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" t="s">
+        <v>257</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>258</v>
+      </c>
+      <c r="X28" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s">
+        <v>265</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>235</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>266</v>
+      </c>
+      <c r="X29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>274</v>
+      </c>
+      <c r="O30" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>275</v>
+      </c>
+      <c r="X30" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>274</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>275</v>
+      </c>
+      <c r="X31" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" t="s">
+        <v>287</v>
+      </c>
+      <c r="L32" t="s">
+        <v>288</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>275</v>
+      </c>
+      <c r="X32" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>295</v>
+      </c>
+      <c r="O33" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>275</v>
+      </c>
+      <c r="X33" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>275</v>
+      </c>
+      <c r="X34" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>308</v>
+      </c>
+      <c r="O35" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>309</v>
+      </c>
+      <c r="X35" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s">
+        <v>88</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>275</v>
+      </c>
+      <c r="X36" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>317</v>
+      </c>
+      <c r="O37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>324</v>
+      </c>
+      <c r="X37" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>306</v>
+      </c>
+      <c r="L38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>275</v>
+      </c>
+      <c r="X38" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" t="s">
+        <v>334</v>
+      </c>
+      <c r="K39" t="s">
+        <v>335</v>
+      </c>
+      <c r="L39" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>317</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>275</v>
+      </c>
+      <c r="X39" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>338</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>339</v>
+      </c>
+      <c r="J40" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s">
+        <v>341</v>
+      </c>
+      <c r="L40" t="s">
+        <v>342</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>343</v>
+      </c>
+      <c r="O40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>275</v>
+      </c>
+      <c r="X40" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>346</v>
+      </c>
+      <c r="J41" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s">
+        <v>349</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>350</v>
+      </c>
+      <c r="X41" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>353</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>354</v>
+      </c>
+      <c r="J42" t="s">
+        <v>355</v>
+      </c>
+      <c r="K42" t="s">
+        <v>356</v>
+      </c>
+      <c r="L42" t="s">
+        <v>357</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>358</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>359</v>
+      </c>
+      <c r="X42" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" t="s">
+        <v>355</v>
+      </c>
+      <c r="K43" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" t="s">
+        <v>365</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>366</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>350</v>
+      </c>
+      <c r="X43" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>369</v>
+      </c>
+      <c r="J44" t="s">
+        <v>370</v>
+      </c>
+      <c r="K44" t="s">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s">
+        <v>372</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>373</v>
+      </c>
+      <c r="O44" t="s">
+        <v>88</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>374</v>
+      </c>
+      <c r="X44" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+      <c r="K45" t="s">
+        <v>379</v>
+      </c>
+      <c r="L45" t="s">
+        <v>380</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>373</v>
+      </c>
+      <c r="O45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>374</v>
+      </c>
+      <c r="X45" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>382</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>383</v>
+      </c>
+      <c r="J46" t="s">
+        <v>384</v>
+      </c>
+      <c r="K46" t="s">
+        <v>385</v>
+      </c>
+      <c r="L46" t="s">
+        <v>386</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>373</v>
+      </c>
+      <c r="O46" t="s">
+        <v>102</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>387</v>
+      </c>
+      <c r="X46" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>391</v>
+      </c>
+      <c r="J47" t="s">
+        <v>392</v>
+      </c>
+      <c r="K47" t="s">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s">
+        <v>394</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>396</v>
+      </c>
+      <c r="X47" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>399</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>400</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s">
+        <v>403</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>395</v>
+      </c>
+      <c r="O48" t="s">
+        <v>88</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>404</v>
+      </c>
+      <c r="X48" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>407</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>408</v>
+      </c>
+      <c r="J49" t="s">
+        <v>409</v>
+      </c>
+      <c r="K49" t="s">
+        <v>410</v>
+      </c>
+      <c r="L49" t="s">
+        <v>411</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>412</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>413</v>
+      </c>
+      <c r="X49" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>416</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>417</v>
+      </c>
+      <c r="J50" t="s">
+        <v>418</v>
+      </c>
+      <c r="K50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L50" t="s">
+        <v>420</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>421</v>
+      </c>
+      <c r="O50" t="s">
+        <v>102</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>422</v>
+      </c>
+      <c r="X50" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>426</v>
+      </c>
+      <c r="J51" t="s">
+        <v>427</v>
+      </c>
+      <c r="K51" t="s">
+        <v>189</v>
+      </c>
+      <c r="L51" t="s">
+        <v>428</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>308</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>429</v>
+      </c>
+      <c r="X51" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>432</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>433</v>
+      </c>
+      <c r="J52" t="s">
+        <v>434</v>
+      </c>
+      <c r="K52" t="s">
+        <v>435</v>
+      </c>
+      <c r="L52" t="s">
+        <v>436</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>421</v>
+      </c>
+      <c r="O52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>437</v>
+      </c>
+      <c r="X52" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>440</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>441</v>
+      </c>
+      <c r="J53" t="s">
+        <v>442</v>
+      </c>
+      <c r="K53" t="s">
+        <v>443</v>
+      </c>
+      <c r="L53" t="s">
+        <v>444</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>445</v>
+      </c>
+      <c r="O53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>446</v>
+      </c>
+      <c r="X53" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>453</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>445</v>
+      </c>
+      <c r="O54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>454</v>
+      </c>
+      <c r="X54" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>457</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>458</v>
+      </c>
+      <c r="J55" t="s">
+        <v>459</v>
+      </c>
+      <c r="K55" t="s">
+        <v>460</v>
+      </c>
+      <c r="L55" t="s">
+        <v>461</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>462</v>
+      </c>
+      <c r="O55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>463</v>
+      </c>
+      <c r="X55" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>466</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>467</v>
+      </c>
+      <c r="J56" t="s">
+        <v>468</v>
+      </c>
+      <c r="K56" t="s">
+        <v>469</v>
+      </c>
+      <c r="L56" t="s">
+        <v>470</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>462</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>471</v>
+      </c>
+      <c r="X56" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>474</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>475</v>
+      </c>
+      <c r="J57" t="s">
+        <v>476</v>
+      </c>
+      <c r="K57" t="s">
+        <v>477</v>
+      </c>
+      <c r="L57" t="s">
+        <v>478</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>358</v>
+      </c>
+      <c r="O57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>479</v>
+      </c>
+      <c r="X57" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>482</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>483</v>
+      </c>
+      <c r="J58" t="s">
+        <v>476</v>
+      </c>
+      <c r="K58" t="s">
+        <v>484</v>
+      </c>
+      <c r="L58" t="s">
+        <v>485</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>486</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>479</v>
+      </c>
+      <c r="X58" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>488</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>489</v>
+      </c>
+      <c r="J59" t="s">
+        <v>490</v>
+      </c>
+      <c r="K59" t="s">
+        <v>491</v>
+      </c>
+      <c r="L59" t="s">
+        <v>492</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>493</v>
+      </c>
+      <c r="X59" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>496</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>497</v>
+      </c>
+      <c r="J60" t="s">
+        <v>498</v>
+      </c>
+      <c r="K60" t="s">
+        <v>118</v>
+      </c>
+      <c r="L60" t="s">
+        <v>499</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>500</v>
+      </c>
+      <c r="O60" t="s">
+        <v>102</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>501</v>
+      </c>
+      <c r="X60" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>504</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>505</v>
+      </c>
+      <c r="J61" t="s">
+        <v>506</v>
+      </c>
+      <c r="K61" t="s">
+        <v>507</v>
+      </c>
+      <c r="L61" t="s">
+        <v>508</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>500</v>
+      </c>
+      <c r="O61" t="s">
+        <v>121</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>509</v>
+      </c>
+      <c r="X61" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>512</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>513</v>
+      </c>
+      <c r="J62" t="s">
+        <v>514</v>
+      </c>
+      <c r="K62" t="s">
+        <v>515</v>
+      </c>
+      <c r="L62" t="s">
+        <v>516</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>517</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>518</v>
+      </c>
+      <c r="X62" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>521</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>522</v>
+      </c>
+      <c r="J63" t="s">
+        <v>523</v>
+      </c>
+      <c r="K63" t="s">
+        <v>524</v>
+      </c>
+      <c r="L63" t="s">
+        <v>525</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>517</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>526</v>
+      </c>
+      <c r="X63" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>529</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>530</v>
+      </c>
+      <c r="J64" t="s">
+        <v>523</v>
+      </c>
+      <c r="K64" t="s">
+        <v>531</v>
+      </c>
+      <c r="L64" t="s">
+        <v>532</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>517</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>526</v>
+      </c>
+      <c r="X64" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>534</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>535</v>
+      </c>
+      <c r="J65" t="s">
+        <v>536</v>
+      </c>
+      <c r="K65" t="s">
+        <v>537</v>
+      </c>
+      <c r="L65" t="s">
+        <v>538</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>539</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>540</v>
+      </c>
+      <c r="X65" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>543</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>544</v>
+      </c>
+      <c r="J66" t="s">
+        <v>545</v>
+      </c>
+      <c r="K66" t="s">
+        <v>546</v>
+      </c>
+      <c r="L66" t="s">
+        <v>547</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>539</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>548</v>
+      </c>
+      <c r="X66" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>551</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>552</v>
+      </c>
+      <c r="J67" t="s">
+        <v>553</v>
+      </c>
+      <c r="K67" t="s">
+        <v>554</v>
+      </c>
+      <c r="L67" t="s">
+        <v>555</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>556</v>
+      </c>
+      <c r="O67" t="s">
+        <v>88</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>548</v>
+      </c>
+      <c r="X67" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>558</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>559</v>
+      </c>
+      <c r="J68" t="s">
+        <v>560</v>
+      </c>
+      <c r="K68" t="s">
+        <v>561</v>
+      </c>
+      <c r="L68" t="s">
+        <v>562</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>563</v>
+      </c>
+      <c r="O68" t="s">
+        <v>102</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>564</v>
+      </c>
+      <c r="X68" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>567</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>568</v>
+      </c>
+      <c r="J69" t="s">
+        <v>569</v>
+      </c>
+      <c r="K69" t="s">
+        <v>570</v>
+      </c>
+      <c r="L69" t="s">
+        <v>571</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>563</v>
+      </c>
+      <c r="O69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>572</v>
+      </c>
+      <c r="X69" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>575</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>576</v>
+      </c>
+      <c r="J70" t="s">
+        <v>577</v>
+      </c>
+      <c r="K70" t="s">
+        <v>578</v>
+      </c>
+      <c r="L70" t="s">
+        <v>579</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>580</v>
+      </c>
+      <c r="O70" t="s">
+        <v>88</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>572</v>
+      </c>
+      <c r="X70" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>582</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>583</v>
+      </c>
+      <c r="J71" t="s">
+        <v>584</v>
+      </c>
+      <c r="K71" t="s">
+        <v>585</v>
+      </c>
+      <c r="L71" t="s">
+        <v>586</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>556</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>587</v>
+      </c>
+      <c r="X71" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>590</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>591</v>
+      </c>
+      <c r="J72" t="s">
+        <v>584</v>
+      </c>
+      <c r="K72" t="s">
+        <v>592</v>
+      </c>
+      <c r="L72" t="s">
+        <v>593</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>556</v>
+      </c>
+      <c r="O72" t="s">
+        <v>102</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>587</v>
+      </c>
+      <c r="X72" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>595</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>596</v>
+      </c>
+      <c r="J73" t="s">
+        <v>597</v>
+      </c>
+      <c r="K73" t="s">
+        <v>598</v>
+      </c>
+      <c r="L73" t="s">
+        <v>599</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>600</v>
+      </c>
+      <c r="O73" t="s">
+        <v>121</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>601</v>
+      </c>
+      <c r="X73" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>604</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>605</v>
+      </c>
+      <c r="J74" t="s">
+        <v>606</v>
+      </c>
+      <c r="K74" t="s">
+        <v>607</v>
+      </c>
+      <c r="L74" t="s">
+        <v>608</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>609</v>
+      </c>
+      <c r="O74" t="s">
+        <v>102</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>610</v>
+      </c>
+      <c r="X74" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>613</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>614</v>
+      </c>
+      <c r="J75" t="s">
+        <v>606</v>
+      </c>
+      <c r="K75" t="s">
+        <v>615</v>
+      </c>
+      <c r="L75" t="s">
+        <v>616</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>609</v>
+      </c>
+      <c r="O75" t="s">
+        <v>88</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>610</v>
+      </c>
+      <c r="X75" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>618</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>619</v>
+      </c>
+      <c r="J76" t="s">
+        <v>606</v>
+      </c>
+      <c r="K76" t="s">
+        <v>620</v>
+      </c>
+      <c r="L76" t="s">
+        <v>621</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>609</v>
+      </c>
+      <c r="O76" t="s">
+        <v>88</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>610</v>
+      </c>
+      <c r="X76" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>623</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>624</v>
+      </c>
+      <c r="J77" t="s">
+        <v>625</v>
+      </c>
+      <c r="K77" t="s">
+        <v>626</v>
+      </c>
+      <c r="L77" t="s">
+        <v>627</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>628</v>
+      </c>
+      <c r="O77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>629</v>
+      </c>
+      <c r="X77" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>632</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>633</v>
+      </c>
+      <c r="J78" t="s">
+        <v>634</v>
+      </c>
+      <c r="K78" t="s">
+        <v>635</v>
+      </c>
+      <c r="L78" t="s">
+        <v>636</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>637</v>
+      </c>
+      <c r="X78" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>640</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>641</v>
+      </c>
+      <c r="J79" t="s">
+        <v>642</v>
+      </c>
+      <c r="K79" t="s">
+        <v>643</v>
+      </c>
+      <c r="L79" t="s">
+        <v>644</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>580</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>645</v>
+      </c>
+      <c r="X79" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>648</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>649</v>
+      </c>
+      <c r="J80" t="s">
+        <v>650</v>
+      </c>
+      <c r="K80" t="s">
+        <v>651</v>
+      </c>
+      <c r="L80" t="s">
+        <v>652</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>653</v>
+      </c>
+      <c r="O80" t="s">
+        <v>121</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>654</v>
+      </c>
+      <c r="X80" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>657</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>658</v>
+      </c>
+      <c r="J81" t="s">
+        <v>659</v>
+      </c>
+      <c r="K81" t="s">
+        <v>660</v>
+      </c>
+      <c r="L81" t="s">
+        <v>661</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>662</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>663</v>
+      </c>
+      <c r="X81" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>666</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>667</v>
+      </c>
+      <c r="J82" t="s">
+        <v>668</v>
+      </c>
+      <c r="K82" t="s">
+        <v>669</v>
+      </c>
+      <c r="L82" t="s">
+        <v>670</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>662</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>671</v>
+      </c>
+      <c r="X82" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>674</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>675</v>
+      </c>
+      <c r="J83" t="s">
+        <v>676</v>
+      </c>
+      <c r="K83" t="s">
+        <v>677</v>
+      </c>
+      <c r="L83" t="s">
+        <v>678</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>679</v>
+      </c>
+      <c r="O83" t="s">
+        <v>62</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>680</v>
+      </c>
+      <c r="X83" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63271</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>683</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>684</v>
+      </c>
+      <c r="J84" t="s">
+        <v>685</v>
+      </c>
+      <c r="K84" t="s">
+        <v>686</v>
+      </c>
+      <c r="L84" t="s">
+        <v>687</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>688</v>
+      </c>
+      <c r="O84" t="s">
+        <v>88</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>689</v>
+      </c>
+      <c r="X84" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
